--- a/docs/ST3/ST3_15.08.2024_output.xlsx
+++ b/docs/ST3/ST3_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731670281.749701</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731670282.1859531</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670281.749701.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670282.1859531.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.24</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.69</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731670285.9950633</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731670287.0699828</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670285.9950633.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670287.0699828.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.43</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.9800000000000182</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731670288.170642</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731670291.3185866</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670288.170642.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731670291.3185866.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.48</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.39</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.09000000000003183</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731670299.5890799</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731670299.96837</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670299.5890799.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670299.96837.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.24</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.69</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731670303.5690486</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731670304.6271317</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670303.5690486.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670304.6271317.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.43</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.9800000000000182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731670305.6631286</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731670308.1772397</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670305.6631286.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670308.1772397.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.39</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.09000000000003183</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731670314.3501897</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731670315.124392</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670314.3501897.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670315.124392.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>279.32</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731670315.9793048</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731670316.454451</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670315.9793048.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670316.454451.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.11</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>279.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.339999999999975</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731670320.5409338</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731670320.8340688</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670320.5409338.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670320.8340688.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>279.1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>278.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7000000000000455</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731670321.377949</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731670321.777782</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670321.377949.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670321.777782.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.59</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.28</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731670323.131421</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731670323.4141476</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670323.131421.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670323.4141476.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.98</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.11</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731670325.5873268</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731670327.9920633</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670325.5873268.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731670327.9920633.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.69</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.01</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.3199999999999932</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731670342.069055</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731670344.0645483</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670342.069055.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670344.0645483.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.55</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>128.25</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731670345.6482947</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731670346.6228743</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670345.6482947.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670346.6228743.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>128.27</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>127.82</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4500000000000171</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731670347.236996</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731670349.6349761</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670347.236996.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731670349.6349761.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>128</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.49</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5100000000000051</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731670350.3854263</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731670350.3854263.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731670350.3854263.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.56</v>
       </c>
-      <c r="J18" t="n">
-        <v>127.56</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>127.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.2199999999999989</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731670352.000436</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731670352.4613478</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670352.000436.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670352.4613478.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6385</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6378</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>7</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731670352.8345282</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731670353.1332626</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670352.8345282.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670353.1332626.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6376.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6374</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-2.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731670353.4038858</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731670354.6171486</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670353.4038858.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670354.6171486.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6377.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6394.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-17</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731670354.6321084</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731670356.9683383</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670354.6321084.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670356.9683383.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6394.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6390.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731670358.0594945</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731670359.3274455</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670358.0594945.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670359.3274455.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6383</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6374</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>9</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731670364.6092887</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731670367.8209813</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670364.6092887.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731670367.8209813.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6356</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6356</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1675,95 +1823,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731670370.4783623</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731670370.4783623.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731670370.4783623.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6342</v>
       </c>
-      <c r="J25" t="n">
-        <v>6342</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>6343.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731670384.167507</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731670385.4582865</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670384.167507.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670385.4582865.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>494.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>495.85</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-1</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731670386.738005</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731670387.9107323</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670386.738005.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731670387.9107323.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>496</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>495</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1823,95 +1989,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731670388.9251504</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731670388.9251504.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731670388.9251504.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>495.2</v>
       </c>
-      <c r="J28" t="n">
-        <v>495.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>495.3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731670389.299134</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731670389.9491143</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670389.299134.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670389.9491143.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>222.59</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>222.08</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731670390.6069522</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731670392.0253468</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670390.6069522.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670392.0253468.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>222.16</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>222.6</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731670394.139961</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731670395.6881394</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670394.139961.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670395.6881394.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>223.99</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>223.57</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731670401.4800675</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731670402.0914361</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670401.4800675.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670402.0914361.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>223.89</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>224.1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.210000000000008</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731670403.006078</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731670403.6214182</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670403.006078.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670403.6214182.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>224.25</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>224.7</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731670404.8447857</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731670405.743099</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670404.8447857.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731670405.743099.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>225.01</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>224.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1099999999999852</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731670408.411913</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731670409.1134255</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670408.411913.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670409.1134255.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1029.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1032</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731670411.2251534</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731670413.5132525</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670411.2251534.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670413.5132525.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1039.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1039.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731670420.10434</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731670421.9945025</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670420.10434.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731670421.9945025.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1034</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1034.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731670432.9400203</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731670433.423071</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670432.9400203.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670433.423071.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>12.022</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>12.063</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.04100000000000037</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731670434.115361</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731670435.6400604</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670434.115361.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670435.6400604.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>12.051</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>12.083</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.03200000000000003</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731670436.3551128</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731670438.7096274</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670436.3551128.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670438.7096274.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.084</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>12.024</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.0600000000000005</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731670442.0353916</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731670443.8914704</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670442.0353916.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731670443.8914704.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.039</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.047</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2543,51 +2793,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731670445.784884</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731670447.0997534</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670445.784884.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670447.0997534.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>125.08</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>125.5</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.4200000000000017</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731670448.902612</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731670450.5694735</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670448.902612.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670450.5694735.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>125.92</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>125.52</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731670452.7436268</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731670455.6609046</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670452.7436268.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670455.6609046.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>125.2</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>125.26</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731670457.9224603</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731670460.1058354</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670457.9224603.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731670460.1058354.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>125.18</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>125.06</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731670463.9864373</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731670465.0930996</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670463.9864373.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670465.0930996.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>162.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>163.72</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.9199999999999875</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731670465.1080604</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731670465.7957394</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670465.1080604.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670465.7957394.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>163.72</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>164.48</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2855,51 +3141,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731670466.0074613</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731670468.3101883</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670466.0074613.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670468.3101883.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>164.36</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>164.14</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2200000000000273</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -2907,51 +3199,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731670474.2998452</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731670477.7410774</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670474.2998452.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731670477.7410774.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.94</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>162.74</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2959,43 +3257,49 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731670479.2368975</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731670479.2368975.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731670479.2368975.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>161.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>161.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3003,51 +3307,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731670482.3671997</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731670485.2455478</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670482.3671997.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670485.2455478.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>50.01</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.855</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1550000000000011</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -3055,51 +3365,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731670492.7176383</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731670497.0968235</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670492.7176383.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731670497.0968235.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.965</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>49.965</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3107,51 +3423,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731670499.0067697</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731670499.7658198</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670499.0067697.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670499.7658198.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1387.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1401.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-14.19999999999982</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-1.02</v>
       </c>
     </row>
@@ -3159,51 +3481,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731670500.4373865</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731670501.332516</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670500.4373865.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670501.332516.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1393.4</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1399.6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>6.199999999999818</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3211,51 +3539,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731670501.4539943</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731670503.095491</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670501.4539943.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670503.095491.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1398.4</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>1393</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-5.400000000000091</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -3263,51 +3597,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731670505.2966838</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731670508.4699368</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670505.2966838.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670508.4699368.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1392.2</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1397</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-4.799999999999955</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -3315,51 +3655,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731670514.1607628</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731670514.7414296</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670514.1607628.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731670514.7414296.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1392.8</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1391.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3367,51 +3713,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731670517.1211004</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731670519.6338363</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670517.1211004.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670519.6338363.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>58.76</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>58.89</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.1300000000000026</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3419,51 +3771,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731670519.6497655</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731670521.988253</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670519.6497655.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670521.988253.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.89</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.75</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3471,51 +3829,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731670522.005542</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731670522.8631804</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670522.005542.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670522.8631804.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>58.75</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>58.76</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3523,51 +3887,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731670527.6716707</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731670528.6526458</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670527.6716707.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731670528.6526458.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>58.83</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>58.94</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3575,51 +3945,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731670536.424002</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731670536.9469602</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670536.424002.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670536.9469602.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>99.29000000000001</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>99.58</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.289999999999992</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3627,51 +4003,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731670539.4691043</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731670540.560389</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670539.4691043.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670540.560389.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>100.02</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>99.23999999999999</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.7800000000000011</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -3679,51 +4061,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731670540.9798176</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731670542.0907898</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670540.9798176.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670542.0907898.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>99.48999999999999</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>99.65000000000001</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1600000000000108</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3731,51 +4119,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731670551.2237737</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731670552.2974215</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670551.2237737.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731670552.2974215.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>99.41</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>99.47</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3783,51 +4177,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731670553.7731528</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731670558.0425212</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670553.7731528.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670558.0425212.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>55.83</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>55.81</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3835,51 +4235,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731670558.8585584</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731670561.395323</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670558.8585584.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670561.395323.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>55.74</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>55.6</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3887,51 +4293,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731670563.0907083</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731670564.8602123</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670563.0907083.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SELG1731670564.8602123.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>55.55</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>55.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1699999999999946</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3939,95 +4351,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731670567.4143436</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731670567.4143436.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731670567.4143436.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>55.47</v>
       </c>
-      <c r="J69" t="n">
-        <v>55.47</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>55.4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.07000000000000028</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731670572.9971538</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731670573.9630852</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670572.9971538.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670573.9630852.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>156.32</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>155.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -4035,51 +4459,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731670574.4206142</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731670576.169221</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670574.4206142.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670576.169221.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>155.92</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>154.96</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.9599999999999795</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -4087,51 +4517,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731670582.6669245</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731670583.5716136</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670582.6669245.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731670583.5716136.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>154.74</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>154.14</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4139,51 +4575,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731670588.6227043</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731670589.2870135</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670588.6227043.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670589.2870135.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.305</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.3043</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.0006999999999999784</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -4191,51 +4633,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731670593.7022119</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731670597.5298517</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670593.7022119.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731670597.5298517.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>0.3038</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>0.306</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.00219999999999998</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -4243,95 +4691,107 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731670597.5900652</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731670597.5900652.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731670597.5900652.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>0.3058</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.3058</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.3061</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.000299999999999967</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731670597.867043</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731670598.2466927</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670597.867043.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670598.2466927.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>19.995</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>19.928</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.06700000000000017</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731670598.5042176</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731670599.0256743</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670598.5042176.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670599.0256743.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>20.006</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>19.875</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.1310000000000002</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -4391,51 +4857,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731670599.879402</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731670600.7116804</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670599.879402.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670600.7116804.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>19.9</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>19.95</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.05000000000000071</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -4443,51 +4915,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731670606.520229</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731670610.466722</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670606.520229.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731670610.466722.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>19.911</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>19.897</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.0140000000000029</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4495,95 +4973,107 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731670616.1728377</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731670616.1728377.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731670616.1728377.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>19.853</v>
       </c>
-      <c r="J80" t="n">
-        <v>19.853</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>19.826</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.02700000000000102</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731670617.8431406</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731670618.3642907</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670617.8431406.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670618.3642907.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>681.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>680.7</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4591,51 +5081,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731670618.71218</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731670619.3053064</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670618.71218.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670619.3053064.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>681</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>681.9</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4643,51 +5139,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731670621.3705683</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731670622.9950328</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670621.3705683.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670622.9950328.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>682.4</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>680.6</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -4695,51 +5197,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731670623.0099926</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731670624.2261941</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670623.0099926.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670624.2261941.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>680.6</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>677.6</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>3</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731670625.2161949</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731670626.8668866</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670625.2161949.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670626.8668866.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>678</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>676.15</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4799,51 +5313,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731670627.4195476</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731670630.8049362</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670627.4195476.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731670630.8049362.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>676.8</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>677.95</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-1.150000000000091</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4851,95 +5371,107 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731670632.4509432</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731670632.4509432.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731670632.4509432.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>679.8</v>
       </c>
-      <c r="J87" t="n">
-        <v>679.8</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>679.3</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731670634.0589204</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731670635.1366222</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670634.0589204.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670635.1366222.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>151.06</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>150.53</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4947,51 +5479,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731670635.699733</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731670636.6634507</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670635.699733.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670636.6634507.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>150.74</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>151.6</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-0.8599999999999852</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -4999,51 +5537,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731670640.1892428</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731670640.8434317</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670640.1892428.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731670640.8434317.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>151.42</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>151.5</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5127,16 +5671,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7.5</v>
+        <v>-9</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.071428571428571</v>
+        <v>-1.285714285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="F3" t="n">
         <v>-0.02</v>
@@ -5149,19 +5693,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.599999999999909</v>
+        <v>1.099999999999909</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2285714285714156</v>
+        <v>0.1571428571428442</v>
       </c>
       <c r="E4" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -5193,19 +5737,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1620000000000026</v>
+        <v>0.1890000000000036</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03240000000000052</v>
+        <v>0.03780000000000072</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -5281,19 +5825,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.260000000000034</v>
+        <v>1.480000000000032</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3150000000000084</v>
+        <v>0.3700000000000081</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98</v>
+        <v>1.15</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11">
@@ -5369,19 +5913,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3299999999999912</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0824999999999978</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15">
@@ -5457,19 +6001,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2</v>
+        <v>-2.100000000000023</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.7000000000000076</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4</v>
+        <v>-0.42</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="19">
@@ -5501,19 +6045,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002899999999999958</v>
+        <v>-0.002599999999999991</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0009666666666666527</v>
+        <v>-0.0008666666666666637</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.95</v>
+        <v>-0.85</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.32</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="21">
